--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/69_Sinop_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/69_Sinop_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E293C2-43B2-4375-92F5-6CDE4A745F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D293CE-5C8D-4AE3-B47C-4BFC8AF7D445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{33F22A2B-9960-48E7-BDF3-75D130B8D88F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{61F2B101-4420-4356-8EF5-4C367251BDF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DCD8CFEE-CFEF-420F-B7D4-B14835801C9B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B74418DA-1062-4343-8FDD-EE9275AFE9B7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{D5BCB085-428E-4666-87B6-F8CED23E4F2D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{330FF4A3-3D32-48D6-A95A-CBA672E2C2CE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C596253B-D9E3-4B14-A91E-464EFC55C7AA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{C8B47C6A-333D-453F-8D34-A18F495CC1C3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CE46646B-7E6A-4153-A32E-0ECA7B761127}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{405CA9E5-8FBC-4062-96BA-B3B13CDC6C20}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DF9FE46A-F9D7-4D88-8ADD-3218476AA360}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{FB726A73-BFC8-4A84-8E2C-FCBAA59A1DFA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{720C9A25-D8AB-4FE8-9543-2A39A08F687A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A19CC68C-A949-43C9-BD71-2070B470A2E7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{CE9A8BE9-8D9B-4D63-8513-8EC9D19BBA9D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D3892E24-815D-4127-903F-0A33F4447B41}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AFA8D8-EA36-496B-8064-31A1546986A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD567DBA-ECCB-479A-A5C1-50B38A5296B3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2544,18 +2544,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41678BD4-8F42-4650-81E4-96582654BE30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BA0186C-5AE2-40E7-A8A8-C41138A849F7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3C9F8384-FA53-46C5-B972-2F639FE75B47}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6D904A9A-AFC3-4B70-899C-B64E92C4C4AA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{690D456F-A87D-4C20-A16D-6F55174F37B2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B55E6BC1-FA56-4606-9060-8F7184FC139B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E2F7C22-DAA2-4641-9332-47EEF99C5250}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{228C2021-5934-4212-8BA7-7A5A2A437036}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B40AE3A-06DD-4E2C-BE85-9ED62DEE4DFB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2F72B4C-AE0B-4230-8484-7709951E8A03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2723460C-5B9C-4D31-9303-8BCC5F76DDAD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAB6FE19-E1E2-4E5C-86F6-B1BD3F6F841A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6758354-F39B-4DC9-B2D2-29805EA7CE42}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCDC94A1-F3D2-4313-94EA-3EE54D2FB81A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3984C68D-CE69-4B8D-A3A9-4C0D9914BC66}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F0820366-E996-4CBE-943E-34116C4E83D5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D580C223-F687-4DBA-89F2-9FE321646FFA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE1F650E-EB55-472D-AFD5-67C33166C14D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF14ACDA-D1DF-48DD-BD03-39171FDD4D47}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5694405-13EB-46DD-90F8-12FF346F77A2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD8C7737-6B11-4AD7-AC1E-715F152D2715}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E32C7259-FF52-4340-8C48-F3BF88708891}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC1605C4-424D-4569-B50A-1B077A138E78}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{114B0F24-5732-43A0-BA4A-7718C04BE17E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2568,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7932EDA4-CB1C-4EB0-96C8-986F4FB0D69D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8949ED1B-0D61-4968-B586-09DCCE46D194}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3766,18 +3766,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B736437-484F-48A2-85D2-70A70871B835}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96A40E99-7526-40C7-9A14-CE2018773EC8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09ED5021-2A81-4A86-835B-069E2A72CBCA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{679342FC-D327-4B58-A5A2-72DFB86C030D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49FBFD55-6DEE-4133-A58F-6061A24C9745}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18B8B105-C043-4BF3-AD9A-CFED1C3DED69}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F5611E0-AC9F-434C-B220-FB8B62FD857C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72A4D8E5-5B8F-47A9-A39B-5EE3CCC60259}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43302A72-C0AD-4556-994F-D8D6EB5A3D17}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E5197F20-8A85-4D86-A622-75C3B05ADF13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D20F7E4-ACAF-4F66-A2ED-78736B018524}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B1A3628-213C-4BD1-9E6B-520538EB63EB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA408080-1605-4950-A5E3-10E23EB2238A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6458C55-D621-4402-930A-255BC90317C2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{37D5F8D4-0A54-42DA-A77C-70317223BB66}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{65ABE8AC-8008-4554-8128-0FC656B467C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AD426C8-E008-4F58-9A3B-A4CF91FB45E7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{150DA4AC-FC81-4D5F-B100-C865B705196C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2AF4349-6E0F-4E2B-A755-496B7A9B05DB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D096F6DB-5BEF-4C40-A808-EE69F7E0E9D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6CDAE005-94AC-482B-8B63-301687FA68C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1FD099A9-6A22-4D11-B70C-EF1493F886A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA1270CC-FC00-4CC9-AE5B-B699E1495991}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9402501A-1361-4986-8599-7668DFCC3C65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3790,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594CC3FF-127F-410F-B222-C9AB99851031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD7426C-5A71-4C6C-BD6A-39DB1A4F2AA9}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4988,18 +4988,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82AB588D-DFD3-48D4-9B8D-F322B03D9537}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{957485AA-086B-458B-9F1F-23716B32D6B0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4B2F4495-82CA-432F-A8A1-0AC615737E92}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{308C2F2B-5A10-4061-BCD0-8AA95B75B5A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3607B684-C466-48B7-89E9-4BA30C8331AF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F9E996E6-AD28-4892-8DB4-E8A0E2D3EDB5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FDDE81B5-4338-47D8-9161-16D99D8ABFA6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88F83C31-6975-4470-89D6-201C556A2E40}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D36C1D7-69E7-4960-BA47-A9ABD0CECB8F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1FD3159-278F-4280-841A-BF1A8BC9045A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8101333-9582-4EF5-8DF1-6535A19DE388}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E81A598-B914-442B-B863-2AC79FAFDCB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EAFB3932-4470-4653-A83D-425F30544142}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16555550-7F66-4D44-8C0A-D5A18DF74C4D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{680F8C5A-BD16-450F-9B99-B175456A43FD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A72BDF0-DC7C-4052-B283-C2E37807E4A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9769A10C-B720-4988-AE19-A24063E5C598}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ABB41EE3-D239-4240-8007-80DE8EDB6CCE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3ABCBD3A-BED3-4770-9B9E-527887600D84}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B07AB1DE-F416-43F3-B9A3-97E801D0234A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D88E2A82-B60A-4B82-9028-252E31CBDCC5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5B088E30-6E65-4BE3-AAC2-CC6A52E8A4FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D702E247-FFCC-4522-ACD1-2FD0619F9D64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0FFA69E-6737-4148-8550-E924161960B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5012,7 +5012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E448CA-5A78-478B-B6FD-A18919FFC44C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C67157A-4A94-42D7-BF03-8C6E170D4C9B}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6210,18 +6210,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E36BE9E-54DA-41A3-8B26-B5FF2B4E49A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CEAA8AE-A47F-4E43-965E-47BAE4EB31F0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB10D03C-2FAA-4F7F-A66F-9239D0105A2A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C1192A82-7A89-485B-98E2-B94BC32160EC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA039699-546F-40E3-93C5-1318C11D6B29}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E8FEC0A-65B1-40BF-9940-6E77C9613E88}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EDA717A-3A33-4B7C-B13B-F0975648A32F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC793B8A-08F1-4CC4-BB6C-9EA951362475}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A348B96-F2A7-4936-A4C6-76CF60043FA1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4F178C7-4036-4F8F-91E1-5D8A7157D113}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83282698-805C-46D5-A22E-20184CD94DAE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFDDD93B-5087-4A26-B0F1-89225EDF96A1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83DB0F66-0A91-4583-BA34-2A476FB10E1D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9B82110-2FFD-4E09-80B2-C6E61C38DE78}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0FACFEF5-821D-49C4-91DC-4E5CA3D88EB2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F40385A8-5B2D-44CB-8330-B0F10393603C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7345694F-AF41-4520-973D-E14F10B45E0B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1ECAD864-CD07-46F5-B65B-44D368C1258F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27CCEA4D-1628-4EDB-8E64-255D40A7E446}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{990CB150-A425-4564-8D33-B7DC18E41711}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{56BDACEC-7BE9-4933-AEEB-B39E68BFDF57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1CD2788-6BCD-4226-95E3-E05C653A7EEE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5086C25B-87AC-4145-9C49-0656BE0764E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D149ACF9-9D01-4649-8A54-80681D8C7B69}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6234,7 +6234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF87197-CAFC-4EFE-9633-46A3A9B49508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE198D9C-F258-4970-820F-D99596999B93}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7445,18 +7445,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3383E9E9-CA0A-4FBA-AD98-61FF5E1CAF7B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E69D292A-0EF6-48C5-88D0-C3C93C4DF6A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{57E98DD4-DC9C-4235-A9D7-750291DB6F47}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7F49C58B-2924-4B60-B0DB-11475988D6E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A60379B-8A80-4B3E-B8BF-5604C0834F57}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1ABCB9BC-7D6B-4E1A-BE4F-BE9454B7471A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5B4F98B-F541-4612-ADE9-A08EBDD5D7C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8F640CF0-2E1D-4684-9004-D39E7E299D8D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F372921-A434-414C-B7DA-631DA944044C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8C52171-606C-49CF-AA42-E8D23FA5F189}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FBC8643-FD0B-42C5-B4E4-CE1D6E4A11B2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{46EB1503-A3FF-46B5-8B5A-58B38DC9E403}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1689ADF4-746F-4EEC-BC14-3E7B07599E52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{692FC1D4-9B5A-4931-ACC2-6B0A1D5B2D93}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{26D472CF-C697-4D51-87D9-8E1DAC9E1227}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CDCE6F6A-11CA-48EC-87C8-605E58237D67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9B45BE7B-BE80-4713-9C11-5B89513CD4B3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F7D83FB-1CB3-4773-931D-82FA5BDBDB8E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62BBC01A-1764-44F0-B643-965A73772E05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4727A56-2051-470D-B66E-ECB62D114597}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B1B7490-8261-4704-9999-94FAE13C7A9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{76803065-35A7-4D11-BAD8-095575B0632C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{669C19D8-6855-4ED4-AAD8-C1BFF05113E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BFA44E2D-7EA0-483F-AF63-3D90C0F8878F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7469,7 +7469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E358F3-D7E7-446C-9C03-73CD36401A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D0F6B8-F35D-4F50-946A-27A34E5BA9EC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8680,18 +8680,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E29E6523-2E3A-422B-9A02-854CE328F52B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A0D2CD6-2B94-45C5-AD9F-B5C378A1B353}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{883DA3AF-214D-49FB-9788-3CAD94E3C916}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E78D19FF-0354-408F-9CE0-AE722B397D91}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F95908A-6DCA-4546-BC9A-FE3F29080BD1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4A0C5127-3307-4B4E-A926-23CB1240B395}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7947E2B7-9C30-4DD8-A590-6238AB34C643}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B56F411-90EE-4080-9798-457891C27D91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{587705EE-9B13-444E-A34D-01D94F99159F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66AE4BA9-79FB-4BEF-A8C3-133879460D21}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{757B8D05-BEF7-40F2-A446-4CD8B7B5BD66}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{53AD50EB-3918-4A23-8F42-B03DBDCBEE66}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59ED2950-F637-4368-8C6D-854746CCF8ED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0A57136-825A-4CFF-80F1-0D70FA6DBCC0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE978981-D964-46F5-A7E8-C421CDB20B6F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F9ECAEA3-7FF0-4BA0-8878-FE32523E01EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1788E792-102E-4867-8BE6-C8FC60B7F232}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6CA908A8-EBE5-41FC-BC3A-01811E7BA266}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B56AF72D-F58A-40AC-B04D-2B200BE64831}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0C80CC33-99D9-4A16-BE64-E4517EC64395}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E0E9F9B-D81C-43FB-9B22-D550F4991A87}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A16E707-A70C-4E81-9767-3A06325DB8F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48A4C9DE-11FD-4950-954A-162F8BF8C999}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E0E49DA8-553E-4DDC-854D-78C7DC046060}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8704,7 +8704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFBEAC9-2D25-4DC7-87ED-D06969429A7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B64213F-E3F0-4720-A74A-3FF5BC0FFE10}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9907,18 +9907,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90C29AEE-6551-4CF3-95D6-A584EC6D42D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A1EFA600-C5F5-4AF3-8724-D8214F6C84E0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92F393C3-A91E-44F8-AA52-7DB22D2F7B7D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BE2F6CEB-B907-4DC5-A43C-02FB570B0FA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A55C97B0-FB95-4DA7-A212-6BBD43697E64}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AE095D37-F18C-4432-8AC0-BC00E3D1B1D6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CE5ACF0-3CC1-4FFD-8F3D-BAED2EAF1DD2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF062E90-7AA1-419E-AF91-8C669F281F66}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54E155C5-B3EE-45CD-9B92-DA6CE1A5A822}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6BCE811E-CB70-4CD5-BB8E-F32D8A5102E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CEEA2DC2-D648-408F-A988-CC996EE7FF8D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3140E8E8-3046-47A0-916D-BB35590EE420}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FE76FC0-9AE3-4F12-A776-61C7A64D7280}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6544BA7-A42E-4AC9-A443-5FB368AFDE89}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{817422EC-6001-44C8-9DEF-9B2ACFDBE731}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BCB5A316-ADA7-4065-B89D-B2E9998E4E9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F41ED9C-7D30-4142-ADF9-5A88B7BB4141}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3FD4E6F6-1B22-493A-BFFD-DF139F656B4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{661CE7B2-8DC5-46F9-8223-25795D901242}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CDB8E33-53C8-471D-9E92-7F522F59E4DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{11659AE6-5D41-406F-8FB8-DB50FF2DD46B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{215B12B8-B465-4BA6-8A63-B19329F103F7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEADA582-5FA8-49ED-B909-88DA96DD0AB9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08C88EB7-F76B-4EED-8D24-76710CA9BBE0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9931,7 +9931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D337702B-C57E-489E-AFEC-3DF882D9A37F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5B9F35-784E-4355-AFCD-D63420AE1DDB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11134,18 +11134,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F1A0010-C7C8-418A-B5E3-490F6DF680E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1723A6B6-1CB6-4E11-830E-21A0B6C489A7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96DD0458-EB5E-4446-B9E9-174E17148254}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C9C747F-22F3-4839-8271-A8A13AA03DD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA865714-F522-4067-B940-387B6DED54BE}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AA66CC7E-519D-4905-8BF4-E220B2AA6B36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AC8BFDC4-4375-4A1D-987D-082577330A2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C453F9C8-302E-4CDC-9842-FBEF5797EDF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{23DD15C7-9093-4FAC-80B2-11E17E036162}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19CA914C-F9BD-4EAF-84DC-CFB7A3444D46}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98233E73-EA2C-4A92-BE2A-6CCB22DE9CAF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC12CB8E-8D45-4D84-8C24-482E81B4ADAE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D2FED6F-DF67-4064-8697-41F752921BC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0CDAF5E-91DB-449A-BC32-8A0B8ECA1F76}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5FCB2DFC-C536-4793-8832-D89BC2B54D0F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{84A1442D-D29E-4DA3-B66B-A89066566909}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D3D6419-D091-42A4-B4DB-2FD12CBAE2BE}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3BA64FB4-3145-404F-B0B9-FA306BB201B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F532E9B-BA17-4176-AEF3-14E5E9487CFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF5B099A-0924-47F0-961C-9700860FB3CA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DD31F15-6BDD-4BC1-8016-E55F03C5AA1A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2259F35-A3E2-4458-AC71-8C0CA9F81BF7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C6183BD4-BC05-4D66-BC0D-F68C6AF33FB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63F5F600-28EC-4269-9722-BA6481B3083B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11158,7 +11158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C180C0C-E7D4-4E9C-866C-A3B8B843E1B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F1241F-E4ED-4722-B2A6-258D67542573}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12362,18 +12362,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9C2C1A9-3566-4DB6-B28A-AE302A830E9A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BDA2C58D-F738-4E67-9576-4910F7E497C4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A3E60911-E16E-44BB-BBA7-ADB580EC4F43}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F793506B-10AF-4AD8-B182-328BE1F64185}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AC6E00F-606D-4BCD-A264-C2870B42F317}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8B590305-2CE7-4AF4-84AC-9DD71D486974}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E765BCF9-F270-42E9-ACEC-73A1691445BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2669BF87-C9F0-41D2-B8C9-F49FDEED1A46}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{492CE415-D35D-4613-A92B-F2BEF59EC486}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{62C8B653-961F-4A79-BDC8-CB41FF6FD385}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{732B1163-6F5C-4896-8ABF-2C88E93204E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7B01BD7-E332-46D1-86D0-91E2599D5D16}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF2C984F-6270-43A2-913D-72AFEC06BCAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D85B509F-CDC8-44F9-BFC8-93AA4C4A089A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0691F624-A39B-41B3-BF5D-D90FAA9F2677}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1870FAF1-7D9E-4922-AFF3-ECCAC29213F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17C63EA1-B026-46B0-9727-35C2BB9A456B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B032981A-F59B-4337-877D-AA7E2443859A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{542EEC32-9F17-4037-B010-B15F5E069740}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{47EC4338-57D0-4E7E-B85D-50D22E1A7BB0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7891CAB8-9FDD-440D-A769-C705868AAADC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66F84632-4F05-4F72-B5AE-97896A3633FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{78C36FDE-EEB0-4E47-B9A2-0A32A990DA26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B6DA596-44CA-42F0-88E4-1339739D7EEC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12386,7 +12386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA35EBB4-C353-47DC-894C-C34D7F0D794F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BBD7D7-CE0F-4728-AFB8-15B167CCCD3D}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13590,18 +13590,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D42C7B61-BF86-4793-9376-B44B51A9F9AB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{710874BB-F8C8-48C0-B1DC-A0C240250586}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CD6B75DD-D380-4D06-9F7B-BD1888EB85CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9105DB5D-B6D1-43B6-A685-A1CCD17883EF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E38E991A-5EDC-4B5E-AF9B-EC7B62D9819D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B7F14076-82D0-4724-BB55-61973BE56DB3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{054482B0-3A9E-43FD-A713-425814756999}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83FA4F5C-0DB8-434F-B0C1-07FDD2E97F14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D8744EF-33F7-4F88-AE10-90882ED26842}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{04875051-6AB0-4D45-A1A2-88A0321015B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD1732E2-2DAE-4848-A088-8635F0A80FDC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A23CCB7-BCC2-49D4-B831-BF93086C0DC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E988DB8-8A40-439C-BD4B-78E3A4E67C8C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A5F25091-DCF5-4A7D-B668-96E525113794}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8459D1BB-047B-4D64-AE95-B2E81A47970F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A4DACD12-17DC-46F3-B04F-6D3293F8AEBC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65325464-5759-45B8-B1E4-70707C90F1D9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{14C363DC-2A3F-446F-AE01-ACA0B9D1ABEE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF588EEC-3289-4A75-8F9C-39FF42EEEAA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7417A7BB-320D-4DBD-9CF2-221EE57DD113}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43755F4A-25AD-456F-AF65-A21CB6705DE1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E5305EA-BFBC-4986-8A61-E33C13EC2694}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D12196D9-2E82-42D5-B066-715D5495E033}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3733647B-D618-4ADE-ABC3-DC0C199A99C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13614,7 +13614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5BCAE9-6CB2-419B-AA71-23E946400D8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76404A80-C25C-4672-91DE-7C371FA867B0}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14812,18 +14812,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{439F6BC0-CDC5-4DAF-99E8-7E474E407870}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{19CC4FF8-7610-4069-8B9A-D7A39D9C1996}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFF8EA64-12A6-4E2D-BF78-5CC69D4D5D0A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{381CBA89-44EE-4775-9A64-65211EE6FF10}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AE7F3068-13B3-4C86-A400-5BB225D80DF6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{15AD133D-0125-4FE5-BF5F-83C7E452A31B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8602B4C9-8CF2-4015-9BDB-8B75BB213C79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31658CFE-580F-4647-AC62-6A178FE043BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{890AC22F-968E-4469-9107-0146B13C69D6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96B23273-0E70-4342-9BF9-5C58ADCBF090}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EBB9E58-5E79-4E2F-AE45-CDC38C890C3E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAD8BAB8-B9AE-417A-9EC9-9619B1D6D464}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEC5F639-0706-4223-896A-965728D277B6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF599B95-DF20-4947-8D34-7074E56E4292}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01EE9181-53FD-4EBC-978E-B6DC950716EC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6535D637-D4EE-4093-9C45-8BA64783642C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{332D69ED-071D-43F9-B283-CF10B59ED3A9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AAF24094-24C5-4384-858C-3E33D234B575}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6540BC13-5674-4AE3-939E-F5197FB476C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84CDC620-8930-4E16-A64C-9E4C20C0BA84}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0D91B0AC-F15E-4176-A5CC-44093F93022C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F564952B-36F5-4511-829A-DA130D887606}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A2ADAF6-7043-42E9-BEBB-BF928F0FFA3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62F29987-18A3-454B-9858-01863E1FC9A4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14836,7 +14836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5CAAE3-3410-4BC4-B884-26A664806A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2E0CB5-A53A-4BF9-A772-E4086A205A6D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16036,18 +16036,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7505DAF3-ECDF-463E-B98B-F438C9966670}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{422519A5-87B0-4052-B480-9274E033A1C7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9771FADA-76E6-4524-A473-5AF8F5A016B8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BC4B073-C66C-47B5-95F1-498CCB5D481B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12B4147D-6930-4519-B770-CCF74EC2FB9B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7371C319-62DC-4619-95BA-56B90B4BEEF7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8ABE4EB9-F920-46BA-9C7B-EB4DC621FA54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{950647ED-D28A-4DF7-9F06-72C1E2F23599}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B90C24E6-A35C-4577-B4A9-539D653D993F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{73FCC7F2-050F-4626-893F-F3C977215F31}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7BF5D83-0315-415A-81B8-5F55AAAF387A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E8A4E15-7E8C-45B7-90EA-2DD143F2B432}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{661CADAF-B78F-440E-8D9F-E2DC489235F5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15B02E75-63DB-4104-B4E3-5635A57F6173}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4E2DFEB-9172-4852-BE96-6E67747EE732}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA550E67-A809-43E8-A4E5-3A56DCB87924}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFFFE021-FAA2-4EE5-9928-D672B5254C51}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1625F049-5EEB-43C6-A929-D6263001A83E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A3A83F0-1B80-4960-A7E2-A508C393B0E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A8A17DB-3CB0-4E66-94FF-04ADD7D23DAA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3108252C-0A57-4BEC-93D5-485AD00FB24A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69E578E2-6D24-4DAC-9427-725541563330}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80194185-76E3-4F2E-A146-C6FA9FC0B9AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15F7471B-BF09-4088-AF4F-E72DA4CBA22E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
